--- a/individual_results/avey/474.xlsx
+++ b/individual_results/avey/474.xlsx
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C2" t="n">
         <v>0.4</v>
@@ -528,16 +528,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>0.125</v>
       </c>
       <c r="L2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -574,16 +574,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K3" t="n">
         <v>0.5</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="C4" t="n">
         <v>0.5714285714285715</v>
@@ -617,14 +617,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="K4" t="n">
         <v>0.2</v>
       </c>
-      <c r="L4" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -639,7 +641,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C5" t="n">
         <v>0.7692307692307692</v>
@@ -657,14 +659,16 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5555555555555556</v>
+      </c>
       <c r="K5" t="n">
         <v>0.3125</v>
       </c>
-      <c r="L5" t="n">
-        <v>0.4166666666666667</v>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -679,7 +683,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8262346571285599</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0.7967075809905066</v>
@@ -688,28 +692,28 @@
         <v>0.7967075809905066</v>
       </c>
       <c r="E6" t="n">
-        <v>0.52129602861432</v>
+        <v>0.17376534287144</v>
       </c>
       <c r="F6" t="n">
         <v>0.9639404333166532</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8262346571285599</v>
+        <v>0.2754115523761866</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.2754115523761866</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.2754115523761866</v>
       </c>
       <c r="K6" t="n">
         <v>0.1065437321815508</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1186132994310261</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -740,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -780,13 +784,13 @@
         <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -826,13 +830,13 @@
         <v>1</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -871,15 +875,11 @@
       <c r="D10" t="n">
         <v>2</v>
       </c>
-      <c r="E10" t="n">
-        <v>2</v>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
         <v>1</v>
       </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
